--- a/DaySale_2025-05-27_20-41.xlsx
+++ b/DaySale_2025-05-27_20-41.xlsx
@@ -194,6 +194,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -242,6 +251,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -425,12 +446,18 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
     <t>شامبو جونسون 100 مل</t>
   </si>
   <si>
@@ -450,9 +477,6 @@
   </si>
   <si>
     <t>ماء اكسجين 20</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
@@ -1537,7 +1561,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1547,14 +1571,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1570,7 +1594,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1603,7 +1627,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1620,7 +1644,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1636,7 +1660,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1650,10 +1674,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1669,7 +1693,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1679,14 +1703,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1695,14 +1719,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1719,7 +1743,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1735,7 +1759,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,14 +1769,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1761,14 +1785,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1785,7 +1809,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1794,14 +1818,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,11 +1835,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1827,31 +1851,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1901,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,31 +1917,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1933,7 +1957,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,14 +1967,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1976,14 +2000,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,14 +2016,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2009,14 +2033,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,11 +2066,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>39</v>
@@ -2058,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,14 +2099,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,14 +2132,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2124,7 +2148,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2141,11 +2165,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2157,7 +2181,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,14 +2231,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,31 +2247,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,31 +2280,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2313,7 +2337,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2329,7 +2353,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2339,14 +2363,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,7 +2379,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2372,14 +2396,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,14 +2462,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,14 +2478,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,11 +2495,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2504,11 +2528,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2537,11 +2561,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2570,11 +2594,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2603,49 +2627,115 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1795.81</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>152</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>153</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>154</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>156</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>157</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>33</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>131</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>28</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>33</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>78</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2081.8099999999999</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>160</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>161</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>162</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2884,10 +2974,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
